--- a/doc/План-график.xlsx
+++ b/doc/План-график.xlsx
@@ -5,27 +5,31 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CanSat\2024-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CanSat\2024-2025\KNPN-2025\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="КНПН-2025" sheetId="6" r:id="rId1"/>
-    <sheet name="КНПН" sheetId="2" r:id="rId2"/>
-    <sheet name="КНПН-2024" sheetId="3" r:id="rId3"/>
-    <sheet name="КНПН (3)" sheetId="4" r:id="rId4"/>
-    <sheet name="КНПН (4)" sheetId="5" r:id="rId5"/>
-    <sheet name="Неон" sheetId="1" r:id="rId6"/>
+    <sheet name="Лист1 (2)" sheetId="10" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="7" r:id="rId2"/>
+    <sheet name="КНПН-2025-НГ" sheetId="6" r:id="rId3"/>
+    <sheet name="КНПН" sheetId="2" r:id="rId4"/>
+    <sheet name="КНПН-2024" sheetId="3" r:id="rId5"/>
+    <sheet name="КНПН (3)" sheetId="4" r:id="rId6"/>
+    <sheet name="КНПН (4)" sheetId="5" r:id="rId7"/>
+    <sheet name="Неон" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">КНПН!$A$3:$T$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'КНПН (3)'!$A$3:$T$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'КНПН (4)'!$A$3:$T$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'КНПН-2024'!$A$3:$T$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'КНПН-2025'!$A$3:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Неон!$A$3:$S$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">КНПН!$A$3:$T$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'КНПН (3)'!$A$3:$T$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'КНПН (4)'!$A$3:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'КНПН-2024'!$A$3:$T$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'КНПН-2025-НГ'!$A$3:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$3:$X$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист1 (2)'!$A$3:$X$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Неон!$A$3:$S$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="133">
   <si>
     <t>Написание БПО состояний</t>
   </si>
@@ -337,13 +341,154 @@
   </si>
   <si>
     <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Доработка моделей сборки аппарата</t>
+  </si>
+  <si>
+    <t>Разработка наземного ПО на Raspberry</t>
+  </si>
+  <si>
+    <t>Разработка наземного ПО на ПК</t>
+  </si>
+  <si>
+    <t>Отладка взаимодействия наземной станции с бортом</t>
+  </si>
+  <si>
+    <t>Разработка макета для сбросовых испытаний</t>
+  </si>
+  <si>
+    <t>Проведение испытаний системы поиска</t>
+  </si>
+  <si>
+    <t>Проведение сбросовых испытаний</t>
+  </si>
+  <si>
+    <t>Подготовка видео испытаний и работы механизмов</t>
+  </si>
+  <si>
+    <t>Разводка платы МК</t>
+  </si>
+  <si>
+    <t>Разводка платы Радио</t>
+  </si>
+  <si>
+    <t>Разводка платы Гермообъема</t>
+  </si>
+  <si>
+    <t>Разводка платы Моторов</t>
+  </si>
+  <si>
+    <t>Разводка платы СП</t>
+  </si>
+  <si>
+    <t>Сборка и испытание гермообъема</t>
+  </si>
+  <si>
+    <t>Сборка и испытание системы управления СП</t>
+  </si>
+  <si>
+    <t>Сборка и испытание системы раскрытия лепестков</t>
+  </si>
+  <si>
+    <t>Изготовление парашютов</t>
+  </si>
+  <si>
+    <t>Монтаж и отладка платы Гермообъема</t>
+  </si>
+  <si>
+    <t>Монтаж и отладка платы Моторов</t>
+  </si>
+  <si>
+    <t>Разработка и отладка ПО SD</t>
+  </si>
+  <si>
+    <t>Разработка и отладка ПО радио</t>
+  </si>
+  <si>
+    <t>Разработка и отладка ПО датчиков газов</t>
+  </si>
+  <si>
+    <t>Разработка и отладка ПО дальномера</t>
+  </si>
+  <si>
+    <t>Разработка и отладка ПО обновления воздуха</t>
+  </si>
+  <si>
+    <t>Разработка и отладка ПО наведения СП</t>
+  </si>
+  <si>
+    <t>Разработка и отладка ПО раскрытия лепестков</t>
+  </si>
+  <si>
+    <t>Монтаж и отладка платы СП</t>
+  </si>
+  <si>
+    <t>Разработка ПО состояний</t>
+  </si>
+  <si>
+    <t>Подготовка и печать деталей аппарата</t>
+  </si>
+  <si>
+    <t>Оформление ПЗ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Андрей, Влад</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>я</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Все</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +553,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,8 +644,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -753,6 +930,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -760,7 +1047,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -822,13 +1109,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -838,15 +1140,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,6 +1163,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -881,8 +1253,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFFD964"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF073763"/>
       <color rgb="FFFF0000"/>
@@ -1167,10 +1539,2800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="122"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="61">
+        <v>1</v>
+      </c>
+      <c r="F2" s="61">
+        <v>2</v>
+      </c>
+      <c r="G2" s="61">
+        <v>3</v>
+      </c>
+      <c r="H2" s="61">
+        <v>4</v>
+      </c>
+      <c r="I2" s="83">
+        <v>5</v>
+      </c>
+      <c r="J2" s="61">
+        <v>6</v>
+      </c>
+      <c r="K2" s="61">
+        <v>7</v>
+      </c>
+      <c r="L2" s="84">
+        <v>8</v>
+      </c>
+      <c r="M2" s="61">
+        <v>9</v>
+      </c>
+      <c r="N2" s="61">
+        <v>10</v>
+      </c>
+      <c r="O2" s="61">
+        <v>11</v>
+      </c>
+      <c r="P2" s="61">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="83">
+        <v>13</v>
+      </c>
+      <c r="R2" s="123">
+        <v>14</v>
+      </c>
+      <c r="S2" s="114">
+        <v>15</v>
+      </c>
+      <c r="T2" s="84">
+        <v>16</v>
+      </c>
+      <c r="U2" s="61">
+        <v>17</v>
+      </c>
+      <c r="V2" s="61">
+        <v>18</v>
+      </c>
+      <c r="W2" s="61">
+        <v>19</v>
+      </c>
+      <c r="X2" s="102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="103"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="104"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="105">
+        <v>1</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="82">
+        <v>1</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="106"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="105">
+        <v>2</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="82">
+        <v>1</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="106"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="105">
+        <v>3</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="82">
+        <v>4</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="106"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="105">
+        <v>4</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="82">
+        <v>1</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="106"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="105">
+        <v>5</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="106"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="105">
+        <v>6</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="82">
+        <v>1</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="106"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="105">
+        <v>7</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="82">
+        <v>1</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="106"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="105">
+        <v>1</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="82">
+        <v>1</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="106"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="105">
+        <v>2</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="82">
+        <v>1</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="106"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="105">
+        <v>3</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="82">
+        <v>1</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="106"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
+        <v>4</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="82">
+        <v>1</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="106"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
+        <v>5</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="82">
+        <v>1</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="106"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="105">
+        <v>6</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="82">
+        <v>1</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="106"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="105">
+        <v>7</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="82">
+        <v>1</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="106"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="105">
+        <v>8</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="82">
+        <v>1</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="106"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="105">
+        <v>9</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="82">
+        <v>2</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="106"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="105">
+        <v>10</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="82">
+        <v>1</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="106"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="105">
+        <v>11</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="82">
+        <v>1</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="106"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="105">
+        <v>12</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="82">
+        <v>1</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="106"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="105">
+        <v>13</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="82">
+        <v>1</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="106"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="105">
+        <v>1</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="82">
+        <v>1</v>
+      </c>
+      <c r="E24" s="97"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="106"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="105">
+        <v>2</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="82">
+        <v>2</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="106"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="105">
+        <v>3</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="82">
+        <v>2</v>
+      </c>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="106"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="105">
+        <v>4</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="82">
+        <v>1</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="106"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="105">
+        <v>5</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="82">
+        <v>1</v>
+      </c>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="106"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="105">
+        <v>6</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="82">
+        <v>2</v>
+      </c>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="106"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="105">
+        <v>7</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="82">
+        <v>1</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="106"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="105">
+        <v>8</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="82">
+        <v>1</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="106"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="105">
+        <v>9</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="82">
+        <v>1</v>
+      </c>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="106"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="105">
+        <v>10</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="82">
+        <v>2</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="106"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="105">
+        <v>1</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="82">
+        <v>4</v>
+      </c>
+      <c r="E34" s="88"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="106"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="105">
+        <v>2</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="82">
+        <v>1</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="106"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="105">
+        <v>3</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="82">
+        <v>2</v>
+      </c>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="106"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="105">
+        <v>4</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="82">
+        <v>1</v>
+      </c>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="106"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="105">
+        <v>1</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="82">
+        <v>4</v>
+      </c>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="106"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="107">
+        <v>2</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="108">
+        <v>4</v>
+      </c>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="112"/>
+      <c r="W39" s="112"/>
+      <c r="X39" s="113"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:X39"/>
+  <mergeCells count="9">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="122"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="61">
+        <v>1</v>
+      </c>
+      <c r="F2" s="61">
+        <v>2</v>
+      </c>
+      <c r="G2" s="61">
+        <v>3</v>
+      </c>
+      <c r="H2" s="61">
+        <v>4</v>
+      </c>
+      <c r="I2" s="83">
+        <v>5</v>
+      </c>
+      <c r="J2" s="61">
+        <v>6</v>
+      </c>
+      <c r="K2" s="61">
+        <v>7</v>
+      </c>
+      <c r="L2" s="84">
+        <v>8</v>
+      </c>
+      <c r="M2" s="61">
+        <v>9</v>
+      </c>
+      <c r="N2" s="61">
+        <v>10</v>
+      </c>
+      <c r="O2" s="61">
+        <v>11</v>
+      </c>
+      <c r="P2" s="61">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="83">
+        <v>13</v>
+      </c>
+      <c r="R2" s="123">
+        <v>14</v>
+      </c>
+      <c r="S2" s="114">
+        <v>15</v>
+      </c>
+      <c r="T2" s="84">
+        <v>16</v>
+      </c>
+      <c r="U2" s="61">
+        <v>17</v>
+      </c>
+      <c r="V2" s="61">
+        <v>18</v>
+      </c>
+      <c r="W2" s="61">
+        <v>19</v>
+      </c>
+      <c r="X2" s="102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="103"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="104"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="105">
+        <v>1</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="82">
+        <v>1</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="106"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="105">
+        <v>2</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="82">
+        <v>1</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="106"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="105">
+        <v>3</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="82">
+        <v>4</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="106"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="105">
+        <v>4</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="82">
+        <v>1</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="106"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="105">
+        <v>5</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="106"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="105">
+        <v>6</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="82">
+        <v>1</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="106"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="105">
+        <v>7</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="82">
+        <v>1</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="106"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="105">
+        <v>1</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="82">
+        <v>1</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="106"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="105">
+        <v>2</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="82">
+        <v>1</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="106"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="105">
+        <v>3</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="82">
+        <v>1</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="106"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
+        <v>4</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="82">
+        <v>1</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="106"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
+        <v>5</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="82">
+        <v>1</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="106"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="105">
+        <v>6</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="82">
+        <v>1</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="106"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="105">
+        <v>7</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="82">
+        <v>1</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="106"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="105">
+        <v>8</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="82">
+        <v>1</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="106"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="105">
+        <v>9</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="82">
+        <v>2</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="106"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="105">
+        <v>10</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="82">
+        <v>1</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="106"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="105">
+        <v>11</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="82">
+        <v>1</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="106"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="105">
+        <v>12</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="82">
+        <v>1</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="106"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="105">
+        <v>13</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="82">
+        <v>1</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="106"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="105">
+        <v>1</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="82">
+        <v>1</v>
+      </c>
+      <c r="E24" s="97"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="106"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="105">
+        <v>2</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="82">
+        <v>2</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="106"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="105">
+        <v>3</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="82">
+        <v>2</v>
+      </c>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="106"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="105">
+        <v>4</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="82">
+        <v>1</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="106"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="105">
+        <v>5</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="82">
+        <v>1</v>
+      </c>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="106"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="105">
+        <v>6</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="82">
+        <v>2</v>
+      </c>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="106"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="105">
+        <v>7</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="82">
+        <v>1</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="106"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="105">
+        <v>8</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="82">
+        <v>1</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="106"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="105">
+        <v>9</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="82">
+        <v>1</v>
+      </c>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="106"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="105">
+        <v>10</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="82">
+        <v>2</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="106"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="105">
+        <v>1</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="82">
+        <v>4</v>
+      </c>
+      <c r="E34" s="88"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="106"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="105">
+        <v>2</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="82">
+        <v>1</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="106"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="105">
+        <v>3</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="82">
+        <v>2</v>
+      </c>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="106"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="105">
+        <v>4</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="82">
+        <v>1</v>
+      </c>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="106"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="105">
+        <v>1</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="82">
+        <v>4</v>
+      </c>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="106"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="107">
+        <v>2</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="108">
+        <v>4</v>
+      </c>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="112"/>
+      <c r="W39" s="112"/>
+      <c r="X39" s="113"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:X39"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1184,30 +4346,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>99</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="68"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="21">
         <v>21</v>
       </c>
@@ -1671,12 +4833,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+      <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1690,48 +4852,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="64" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
-      <c r="L1" s="69"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="63" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="63"/>
       <c r="O1" s="63"/>
       <c r="P1" s="63"/>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="64" t="s">
         <v>35</v>
       </c>
       <c r="R1" s="63"/>
       <c r="S1" s="63"/>
-      <c r="T1" s="68"/>
+      <c r="T1" s="65"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -3284,7 +6446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
@@ -3303,48 +6465,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="64" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
-      <c r="L1" s="69"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="63" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="63"/>
       <c r="O1" s="63"/>
       <c r="P1" s="63"/>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="64" t="s">
         <v>35</v>
       </c>
       <c r="R1" s="63"/>
       <c r="S1" s="63"/>
-      <c r="T1" s="68"/>
+      <c r="T1" s="65"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -4891,7 +8053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
@@ -4910,48 +8072,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="64" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
-      <c r="L1" s="69"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="63" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="63"/>
       <c r="O1" s="63"/>
       <c r="P1" s="63"/>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="64" t="s">
         <v>35</v>
       </c>
       <c r="R1" s="63"/>
       <c r="S1" s="63"/>
-      <c r="T1" s="68"/>
+      <c r="T1" s="65"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -6498,7 +9660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
@@ -6517,48 +9679,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
-      <c r="H1" s="69"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="63" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="64" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="63"/>
       <c r="O1" s="63"/>
-      <c r="P1" s="69"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="63" t="s">
         <v>35</v>
       </c>
       <c r="R1" s="63"/>
       <c r="S1" s="63"/>
-      <c r="T1" s="68"/>
+      <c r="T1" s="65"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -8199,7 +11361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
@@ -8217,30 +11379,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76" t="s">
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="1">

--- a/doc/План-график.xlsx
+++ b/doc/План-график.xlsx
@@ -722,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +831,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1319,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1460,6 +1478,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1538,9 +1559,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1842,7 +1866,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,99 +1880,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="118" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="119" t="s">
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="121"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="124"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="122">
-        <v>1</v>
-      </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="118">
+      <c r="A2" s="127"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="125">
+        <v>1</v>
+      </c>
+      <c r="G2" s="122"/>
+      <c r="H2" s="121">
         <v>2</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="118">
+      <c r="I2" s="122"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="121">
         <v>3</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="118">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="121">
         <v>4</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="119">
+      <c r="O2" s="122"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="122">
         <v>5</v>
       </c>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="118">
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="121">
         <v>6</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="118">
+      <c r="U2" s="122"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="121">
         <v>7</v>
       </c>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="120"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="123"/>
       <c r="Z2" s="108">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="97" t="s">
         <v>157</v>
       </c>
@@ -1958,7 +1982,7 @@
       <c r="H3" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="147" t="s">
         <v>157</v>
       </c>
       <c r="J3" s="67" t="s">
@@ -2051,8 +2075,8 @@
       <c r="C5" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="144">
-        <v>0.5</v>
+      <c r="D5" s="118">
+        <v>1</v>
       </c>
       <c r="E5" s="65">
         <v>2</v>
@@ -2089,7 +2113,7 @@
       <c r="C6" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="118">
         <v>1</v>
       </c>
       <c r="E6" s="65">
@@ -2127,7 +2151,7 @@
       <c r="C7" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="118">
         <v>1</v>
       </c>
       <c r="E7" s="65">
@@ -2165,15 +2189,15 @@
       <c r="C8" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="118">
         <v>1</v>
       </c>
       <c r="E8" s="65">
         <v>1</v>
       </c>
       <c r="F8" s="99"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="71"/>
       <c r="J8" s="72"/>
       <c r="K8" s="70"/>
@@ -2203,7 +2227,7 @@
       <c r="C9" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="118">
         <v>1</v>
       </c>
       <c r="E9" s="65">
@@ -2211,8 +2235,8 @@
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="71"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="72"/>
       <c r="K9" s="70"/>
       <c r="L9" s="71"/>
@@ -2241,7 +2265,7 @@
       <c r="C10" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="144">
+      <c r="D10" s="118">
         <v>1</v>
       </c>
       <c r="E10" s="65">
@@ -2249,9 +2273,9 @@
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="71"/>
-      <c r="H10" s="70"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="71"/>
-      <c r="J10" s="75"/>
+      <c r="J10" s="116"/>
       <c r="K10" s="70"/>
       <c r="L10" s="71"/>
       <c r="M10" s="71"/>
@@ -2274,12 +2298,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="118">
         <v>0</v>
       </c>
       <c r="E11" s="65">
@@ -2288,9 +2312,9 @@
       <c r="F11" s="99"/>
       <c r="G11" s="71"/>
       <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="71"/>
       <c r="M11" s="71"/>
       <c r="N11" s="70"/>
@@ -2309,26 +2333,26 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="88">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="144">
+        <v>89</v>
+      </c>
+      <c r="D12" s="118">
         <v>1</v>
       </c>
       <c r="E12" s="65">
         <v>1</v>
       </c>
-      <c r="F12" s="115"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="71"/>
       <c r="H12" s="70"/>
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="71"/>
       <c r="M12" s="71"/>
       <c r="N12" s="70"/>
@@ -2347,23 +2371,23 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C13" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="144">
-        <v>0.1</v>
+      <c r="D13" s="118">
+        <v>1</v>
       </c>
       <c r="E13" s="65">
-        <v>2</v>
-      </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="76"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="115"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="71"/>
       <c r="J13" s="72"/>
       <c r="K13" s="70"/>
@@ -2385,25 +2409,25 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="144">
-        <v>0</v>
+      <c r="D14" s="118">
+        <v>0.1</v>
       </c>
       <c r="E14" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="99"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="72"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
       <c r="K14" s="70"/>
       <c r="L14" s="71"/>
       <c r="M14" s="71"/>
@@ -2423,16 +2447,16 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="144">
-        <v>0</v>
+      <c r="D15" s="118">
+        <v>1</v>
       </c>
       <c r="E15" s="65">
         <v>1</v>
@@ -2461,15 +2485,15 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="144">
+      <c r="D16" s="118">
         <v>0</v>
       </c>
       <c r="E16" s="65">
@@ -2478,8 +2502,8 @@
       <c r="F16" s="99"/>
       <c r="G16" s="71"/>
       <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="78"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="149"/>
       <c r="K16" s="70"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -2507,7 +2531,7 @@
       <c r="C17" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="144">
+      <c r="D17" s="118">
         <v>0</v>
       </c>
       <c r="E17" s="65">
@@ -2517,8 +2541,8 @@
       <c r="G17" s="71"/>
       <c r="H17" s="70"/>
       <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="76"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="106"/>
       <c r="L17" s="71"/>
       <c r="M17" s="71"/>
       <c r="N17" s="70"/>
@@ -2545,7 +2569,7 @@
       <c r="C18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="118">
         <v>0</v>
       </c>
       <c r="E18" s="65">
@@ -2583,7 +2607,7 @@
       <c r="C19" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="144">
+      <c r="D19" s="118">
         <v>1</v>
       </c>
       <c r="E19" s="65">
@@ -2621,15 +2645,15 @@
       <c r="C20" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="144">
-        <v>0</v>
+      <c r="D20" s="118">
+        <v>0.9</v>
       </c>
       <c r="E20" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="99"/>
       <c r="G20" s="80"/>
-      <c r="H20" s="70"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="71"/>
       <c r="J20" s="72"/>
       <c r="K20" s="70"/>
@@ -2659,17 +2683,17 @@
       <c r="C21" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="144">
+      <c r="D21" s="118">
         <v>0</v>
       </c>
       <c r="E21" s="65">
         <v>1</v>
       </c>
       <c r="F21" s="99"/>
-      <c r="G21" s="80"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="150"/>
       <c r="K21" s="70"/>
       <c r="L21" s="71"/>
       <c r="M21" s="71"/>
@@ -2697,7 +2721,7 @@
       <c r="C22" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="145">
+      <c r="D22" s="119">
         <v>0</v>
       </c>
       <c r="E22" s="65">
@@ -2705,9 +2729,9 @@
       </c>
       <c r="F22" s="99"/>
       <c r="G22" s="105"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="150"/>
       <c r="K22" s="70"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
@@ -2735,7 +2759,7 @@
       <c r="C23" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="144">
+      <c r="D23" s="118">
         <v>0</v>
       </c>
       <c r="E23" s="65">
@@ -2773,7 +2797,7 @@
       <c r="C24" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="144">
+      <c r="D24" s="118">
         <v>0</v>
       </c>
       <c r="E24" s="65">
@@ -2811,7 +2835,7 @@
       <c r="C25" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="144">
+      <c r="D25" s="118">
         <v>0</v>
       </c>
       <c r="E25" s="65">
@@ -2849,17 +2873,17 @@
       <c r="C26" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="144">
-        <v>0</v>
+      <c r="D26" s="118">
+        <v>1</v>
       </c>
       <c r="E26" s="65">
         <v>1</v>
       </c>
       <c r="F26" s="99"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="70"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="71"/>
-      <c r="J26" s="84"/>
+      <c r="J26" s="116"/>
       <c r="K26" s="70"/>
       <c r="L26" s="71"/>
       <c r="M26" s="71"/>
@@ -2887,7 +2911,7 @@
       <c r="C27" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="144">
+      <c r="D27" s="118">
         <v>1</v>
       </c>
       <c r="E27" s="65">
@@ -2925,7 +2949,7 @@
       <c r="C28" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="145">
+      <c r="D28" s="119">
         <v>0</v>
       </c>
       <c r="E28" s="65">
@@ -2963,7 +2987,7 @@
       <c r="C29" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="144">
+      <c r="D29" s="118">
         <v>0</v>
       </c>
       <c r="E29" s="65">
@@ -3001,7 +3025,7 @@
       <c r="C30" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="144">
+      <c r="D30" s="118">
         <v>0</v>
       </c>
       <c r="E30" s="65">
@@ -3009,10 +3033,10 @@
       </c>
       <c r="F30" s="99"/>
       <c r="G30" s="71"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="70"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="82"/>
       <c r="L30" s="105"/>
       <c r="M30" s="71"/>
       <c r="N30" s="70"/>
@@ -3039,7 +3063,7 @@
       <c r="C31" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="144">
+      <c r="D31" s="118">
         <v>0</v>
       </c>
       <c r="E31" s="65">
@@ -3077,7 +3101,7 @@
       <c r="C32" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="144">
+      <c r="D32" s="118">
         <v>0</v>
       </c>
       <c r="E32" s="65">
@@ -3115,7 +3139,7 @@
       <c r="C33" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="144">
+      <c r="D33" s="118">
         <v>0</v>
       </c>
       <c r="E33" s="65">
@@ -3153,7 +3177,7 @@
       <c r="C34" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="146">
+      <c r="D34" s="120">
         <v>0</v>
       </c>
       <c r="E34" s="91">
@@ -3183,8 +3207,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:Z34">
-    <sortState ref="A5:Y32">
-      <sortCondition ref="C4:C32"/>
+    <sortState ref="A5:Z34">
+      <sortCondition ref="C4:C34"/>
     </sortState>
   </autoFilter>
   <mergeCells count="15">
@@ -3239,54 +3263,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="118" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="119" t="s">
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="118" t="s">
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="119" t="s">
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="121"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="124"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="128"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="61">
         <v>1</v>
       </c>
@@ -4634,54 +4658,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="118" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="119" t="s">
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="118" t="s">
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="119" t="s">
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="121"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="124"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="128"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="61">
         <v>1</v>
       </c>
@@ -6030,30 +6054,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="135"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="133"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="21">
         <v>21</v>
       </c>
@@ -6536,48 +6560,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="134" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="129" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="135"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="133"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -8149,48 +8173,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="134" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="129" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="135"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="133"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -9756,48 +9780,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="134" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="129" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="135"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="133"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -11363,48 +11387,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="129" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="134" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="129" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="135"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="140"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -13063,30 +13087,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143" t="s">
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143" t="s">
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143" t="s">
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="1">

--- a/doc/План-график.xlsx
+++ b/doc/План-график.xlsx
@@ -23,7 +23,7 @@
     <sheet name="Неон" sheetId="1" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 май'!$A$4:$Z$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 май'!$A$4:$AA$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">КНПН!$A$3:$T$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'КНПН (3)'!$A$3:$T$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'КНПН (4)'!$A$3:$T$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="173">
   <si>
     <t>Написание БПО состояний</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>Написать и отладить ПО INA-219</t>
+  </si>
+  <si>
+    <t>чт</t>
+  </si>
+  <si>
+    <t>Определить и описать уравнения пересчета показаний датчиков газов</t>
+  </si>
+  <si>
+    <t>Переделать гермообъем</t>
+  </si>
+  <si>
+    <t>Пайка СП</t>
   </si>
 </sst>
 </file>
@@ -722,7 +734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,18 +849,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,19 +1481,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1521,6 +1512,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1559,12 +1565,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1863,116 +1869,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="3.7109375" customWidth="1"/>
+    <col min="6" max="27" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="121" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="122" t="s">
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="124"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="125">
-        <v>1</v>
-      </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="121">
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="134"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="124"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="136">
+        <v>1</v>
+      </c>
+      <c r="G2" s="133"/>
+      <c r="H2" s="132">
         <v>2</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="121">
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="132">
         <v>3</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="121">
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="132">
         <v>4</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="122">
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="133">
         <v>5</v>
       </c>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="121">
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="132">
         <v>6</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="121">
+      <c r="V2" s="133"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="132">
         <v>7</v>
       </c>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="108">
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="108">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
       <c r="F3" s="97" t="s">
         <v>157</v>
       </c>
@@ -1982,62 +1991,65 @@
       <c r="H3" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="149" t="s">
         <v>157</v>
       </c>
       <c r="J3" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="150" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="N3" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="O3" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="P3" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="Q3" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="63" t="s">
+      <c r="R3" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="S3" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="T3" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="T3" s="66" t="s">
+      <c r="U3" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="V3" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="V3" s="67" t="s">
+      <c r="W3" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="W3" s="66" t="s">
+      <c r="X3" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="63" t="s">
+      <c r="Y3" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="63" t="s">
+      <c r="Z3" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="Z3" s="109" t="s">
+      <c r="AA3" s="109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
       <c r="B4" s="64"/>
       <c r="C4" s="62"/>
@@ -2049,23 +2061,24 @@
       <c r="I4" s="62"/>
       <c r="J4" s="69"/>
       <c r="K4" s="68"/>
-      <c r="L4" s="62"/>
+      <c r="L4" s="121"/>
       <c r="M4" s="62"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="69"/>
       <c r="R4" s="62"/>
       <c r="S4" s="62"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="110"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T4" s="62"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="110"/>
+    </row>
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="88">
         <v>1</v>
       </c>
@@ -2089,21 +2102,22 @@
       <c r="K5" s="70"/>
       <c r="L5" s="71"/>
       <c r="M5" s="71"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
       <c r="R5" s="71"/>
       <c r="S5" s="71"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="70"/>
       <c r="Y5" s="71"/>
-      <c r="Z5" s="111"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="111"/>
+    </row>
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88">
         <v>2</v>
       </c>
@@ -2127,21 +2141,22 @@
       <c r="K6" s="70"/>
       <c r="L6" s="71"/>
       <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
       <c r="R6" s="71"/>
       <c r="S6" s="71"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="70"/>
       <c r="Y6" s="71"/>
-      <c r="Z6" s="111"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="111"/>
+    </row>
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <v>3</v>
       </c>
@@ -2165,21 +2180,22 @@
       <c r="K7" s="70"/>
       <c r="L7" s="71"/>
       <c r="M7" s="71"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
       <c r="R7" s="71"/>
       <c r="S7" s="71"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="70"/>
       <c r="Y7" s="71"/>
-      <c r="Z7" s="111"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="111"/>
+    </row>
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88">
         <v>4</v>
       </c>
@@ -2203,21 +2219,22 @@
       <c r="K8" s="70"/>
       <c r="L8" s="71"/>
       <c r="M8" s="71"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
       <c r="R8" s="71"/>
       <c r="S8" s="71"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="70"/>
       <c r="Y8" s="71"/>
-      <c r="Z8" s="111"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="111"/>
+    </row>
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="88">
         <v>5</v>
       </c>
@@ -2241,21 +2258,22 @@
       <c r="K9" s="70"/>
       <c r="L9" s="71"/>
       <c r="M9" s="71"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="72"/>
       <c r="R9" s="71"/>
       <c r="S9" s="71"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="70"/>
       <c r="Y9" s="71"/>
-      <c r="Z9" s="111"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="111"/>
+    </row>
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="88">
         <v>6</v>
       </c>
@@ -2279,21 +2297,22 @@
       <c r="K10" s="70"/>
       <c r="L10" s="71"/>
       <c r="M10" s="71"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="72"/>
       <c r="R10" s="71"/>
       <c r="S10" s="71"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="70"/>
       <c r="Y10" s="71"/>
-      <c r="Z10" s="111"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="111"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="88">
         <v>7</v>
       </c>
@@ -2304,7 +2323,7 @@
         <v>89</v>
       </c>
       <c r="D11" s="118">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="65">
         <v>1</v>
@@ -2317,21 +2336,22 @@
       <c r="K11" s="70"/>
       <c r="L11" s="71"/>
       <c r="M11" s="71"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="72"/>
       <c r="R11" s="71"/>
       <c r="S11" s="71"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="70"/>
       <c r="Y11" s="71"/>
-      <c r="Z11" s="111"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="111"/>
+    </row>
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="88">
         <v>8</v>
       </c>
@@ -2351,150 +2371,154 @@
       <c r="G12" s="71"/>
       <c r="H12" s="70"/>
       <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="71"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="71"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="72"/>
       <c r="R12" s="71"/>
       <c r="S12" s="71"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="70"/>
       <c r="Y12" s="71"/>
-      <c r="Z12" s="111"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="111"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="88">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>87</v>
+        <v>170</v>
+      </c>
+      <c r="C13" s="105" t="s">
+        <v>89</v>
       </c>
       <c r="D13" s="118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="65">
-        <v>1</v>
-      </c>
-      <c r="F13" s="115"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="99"/>
       <c r="G13" s="71"/>
       <c r="H13" s="70"/>
       <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="72"/>
       <c r="R13" s="71"/>
       <c r="S13" s="71"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="70"/>
       <c r="Y13" s="71"/>
-      <c r="Z13" s="111"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="111"/>
+    </row>
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C14" s="71" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="118">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E14" s="65">
         <v>2</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="77"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="71"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="72"/>
       <c r="R14" s="71"/>
       <c r="S14" s="71"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="70"/>
       <c r="Y14" s="71"/>
-      <c r="Z14" s="111"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="111"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>87</v>
       </c>
       <c r="D15" s="118">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="99"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="71"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="72"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="70"/>
       <c r="Y15" s="71"/>
-      <c r="Z15" s="111"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="111"/>
+    </row>
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="71" t="s">
         <v>87</v>
       </c>
       <c r="D16" s="118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="65">
         <v>1</v>
@@ -2503,36 +2527,37 @@
       <c r="G16" s="71"/>
       <c r="H16" s="70"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="149"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="71"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
       <c r="R16" s="71"/>
       <c r="S16" s="71"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="70"/>
       <c r="Y16" s="71"/>
-      <c r="Z16" s="111"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="111"/>
+    </row>
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="105" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="65">
         <v>1</v>
@@ -2540,31 +2565,32 @@
       <c r="F17" s="99"/>
       <c r="G17" s="71"/>
       <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="78"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="71"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="71"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="72"/>
       <c r="R17" s="71"/>
       <c r="S17" s="71"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="70"/>
       <c r="Y17" s="71"/>
-      <c r="Z17" s="111"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="111"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C18" s="71" t="s">
         <v>87</v>
@@ -2578,183 +2604,188 @@
       <c r="F18" s="99"/>
       <c r="G18" s="71"/>
       <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="116"/>
       <c r="K18" s="70"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="71"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="70"/>
       <c r="Y18" s="71"/>
-      <c r="Z18" s="111"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="111"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D19" s="118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="65">
-        <v>2</v>
-      </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="80"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="99"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="70"/>
       <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="105"/>
       <c r="M19" s="71"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="71"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="72"/>
       <c r="R19" s="71"/>
       <c r="S19" s="71"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="70"/>
       <c r="Y19" s="71"/>
-      <c r="Z19" s="111"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="111"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D20" s="118">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="99"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="79"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="71"/>
       <c r="J20" s="72"/>
       <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="71"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="70"/>
       <c r="Y20" s="71"/>
-      <c r="Z20" s="111"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="111"/>
+    </row>
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C21" s="71" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="65">
-        <v>1</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="105"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="100"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="70"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="150"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
+      <c r="L21" s="105"/>
       <c r="M21" s="71"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="72"/>
       <c r="R21" s="71"/>
       <c r="S21" s="71"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="70"/>
       <c r="Y21" s="71"/>
-      <c r="Z21" s="111"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="111"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="119">
-        <v>0</v>
+      <c r="D22" s="118">
+        <v>0.9</v>
       </c>
       <c r="E22" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="99"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="150"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
+      <c r="L22" s="105"/>
       <c r="M22" s="71"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="71"/>
       <c r="S22" s="71"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="70"/>
       <c r="Y22" s="71"/>
-      <c r="Z22" s="111"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="111"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C23" s="71" t="s">
         <v>59</v>
@@ -2766,71 +2797,73 @@
         <v>1</v>
       </c>
       <c r="F23" s="99"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="81"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="116"/>
       <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
+      <c r="L23" s="105"/>
       <c r="M23" s="71"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="72"/>
       <c r="R23" s="71"/>
       <c r="S23" s="71"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="70"/>
       <c r="Y23" s="71"/>
-      <c r="Z23" s="111"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="111"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="118">
-        <v>0</v>
+      <c r="D24" s="119">
+        <v>0.6</v>
       </c>
       <c r="E24" s="65">
         <v>2</v>
       </c>
       <c r="F24" s="99"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="80"/>
       <c r="J24" s="116"/>
-      <c r="K24" s="79"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="80"/>
       <c r="M24" s="71"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="72"/>
       <c r="R24" s="71"/>
       <c r="S24" s="71"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="70"/>
       <c r="Y24" s="71"/>
-      <c r="Z24" s="111"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="111"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C25" s="71" t="s">
         <v>59</v>
@@ -2843,113 +2876,116 @@
       </c>
       <c r="F25" s="99"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="70"/>
+      <c r="H25" s="106"/>
       <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
+      <c r="J25" s="81"/>
       <c r="K25" s="70"/>
       <c r="L25" s="105"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="72"/>
       <c r="R25" s="71"/>
       <c r="S25" s="71"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="70"/>
       <c r="Y25" s="71"/>
-      <c r="Z25" s="111"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="111"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>59</v>
       </c>
       <c r="D26" s="118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65">
         <v>1</v>
       </c>
       <c r="F26" s="99"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="82"/>
+      <c r="H26" s="106"/>
       <c r="I26" s="71"/>
       <c r="J26" s="116"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="105"/>
       <c r="M26" s="71"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="71"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="70"/>
       <c r="Y26" s="71"/>
-      <c r="Z26" s="111"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="111"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="88">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="D27" s="118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="65">
         <v>2</v>
       </c>
-      <c r="F27" s="113"/>
-      <c r="G27" s="83"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="70"/>
       <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="71"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="70"/>
       <c r="Y27" s="71"/>
-      <c r="Z27" s="111"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="111"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="119">
+        <v>139</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="118">
         <v>0</v>
       </c>
       <c r="E28" s="65">
@@ -2962,112 +2998,115 @@
       <c r="J28" s="72"/>
       <c r="K28" s="70"/>
       <c r="L28" s="105"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="71"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="70"/>
       <c r="Y28" s="71"/>
-      <c r="Z28" s="111"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="111"/>
+    </row>
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="88">
         <v>1</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D29" s="118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="65">
         <v>1</v>
       </c>
       <c r="F29" s="99"/>
       <c r="G29" s="71"/>
-      <c r="H29" s="70"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="J29" s="116"/>
       <c r="K29" s="70"/>
-      <c r="L29" s="83"/>
+      <c r="L29" s="105"/>
       <c r="M29" s="71"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="70"/>
       <c r="Y29" s="71"/>
-      <c r="Z29" s="111"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="111"/>
+    </row>
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="D30" s="118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="65">
         <v>2</v>
       </c>
-      <c r="F30" s="99"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="82"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="70"/>
       <c r="L30" s="105"/>
       <c r="M30" s="71"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="105"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="72"/>
       <c r="R30" s="105"/>
       <c r="S30" s="105"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="71"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="70"/>
       <c r="Y30" s="71"/>
-      <c r="Z30" s="111"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="111"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="88">
+        <v>2</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="119">
+        <v>0</v>
+      </c>
+      <c r="E31" s="65">
         <v>3</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="118">
-        <v>0</v>
-      </c>
-      <c r="E31" s="65">
-        <v>2</v>
       </c>
       <c r="F31" s="99"/>
       <c r="G31" s="71"/>
@@ -3075,28 +3114,29 @@
       <c r="I31" s="71"/>
       <c r="J31" s="72"/>
       <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="71"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="70"/>
       <c r="Y31" s="71"/>
-      <c r="Z31" s="111"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="111"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="C32" s="71" t="s">
         <v>132</v>
@@ -3105,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" s="99"/>
       <c r="G32" s="71"/>
@@ -3113,122 +3153,251 @@
       <c r="I32" s="71"/>
       <c r="J32" s="72"/>
       <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="71"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="70"/>
       <c r="Y32" s="71"/>
-      <c r="Z32" s="111"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="111"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C33" s="71" t="s">
         <v>132</v>
       </c>
       <c r="D33" s="118">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E33" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="99"/>
       <c r="G33" s="71"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="71"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="70"/>
       <c r="Y33" s="71"/>
-      <c r="Z33" s="111"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="90">
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="111"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="88">
+        <v>3</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="118">
+        <v>0</v>
+      </c>
+      <c r="E34" s="65">
+        <v>2</v>
+      </c>
+      <c r="F34" s="99"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="111"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="88">
+        <v>4</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="118">
+        <v>0</v>
+      </c>
+      <c r="E35" s="65">
+        <v>4</v>
+      </c>
+      <c r="F35" s="99"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="111"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="88">
+        <v>5</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="118">
+        <v>0</v>
+      </c>
+      <c r="E36" s="65">
+        <v>1</v>
+      </c>
+      <c r="F36" s="99"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="111"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90">
         <v>6</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B37" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C37" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="120">
+      <c r="D37" s="120">
         <v>0</v>
       </c>
-      <c r="E34" s="91">
-        <v>1</v>
-      </c>
-      <c r="F34" s="102"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="107"/>
+      <c r="E37" s="91">
+        <v>1</v>
+      </c>
+      <c r="F37" s="102"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Z34">
+  <autoFilter ref="A4:AA37">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0%"/>
+        <filter val="40%"/>
+        <filter val="60%"/>
+        <filter val="80%"/>
+        <filter val="90%"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A5:Z34">
       <sortCondition ref="C4:C34"/>
     </sortState>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D34">
+  <conditionalFormatting sqref="D5:D37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3263,54 +3432,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="121" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="122" t="s">
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="121" t="s">
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="122" t="s">
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="124"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="134"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="61">
         <v>1</v>
       </c>
@@ -4658,54 +4827,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="121" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="122" t="s">
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="121" t="s">
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="122" t="s">
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="124"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="134"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="61">
         <v>1</v>
       </c>
@@ -6054,30 +6223,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="138"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="21">
         <v>21</v>
       </c>
@@ -6560,48 +6729,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="137" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="132" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="137" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="138"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -8173,48 +8342,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="137" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="132" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="137" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="138"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -9780,48 +9949,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="137" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="132" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="137" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="138"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -11387,48 +11556,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="132" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="137" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="132" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="138"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="143"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -13087,30 +13256,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146" t="s">
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146" t="s">
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="1">

--- a/doc/План-график.xlsx
+++ b/doc/План-график.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2025 май" sheetId="12" r:id="rId1"/>
-    <sheet name="Лист1 (2)" sheetId="10" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="7" r:id="rId3"/>
-    <sheet name="КНПН-2025-НГ" sheetId="6" r:id="rId4"/>
-    <sheet name="КНПН" sheetId="2" r:id="rId5"/>
-    <sheet name="КНПН-2024" sheetId="3" r:id="rId6"/>
-    <sheet name="КНПН (3)" sheetId="4" r:id="rId7"/>
-    <sheet name="КНПН (4)" sheetId="5" r:id="rId8"/>
-    <sheet name="Неон" sheetId="1" r:id="rId9"/>
+    <sheet name="Лист2" sheetId="13" r:id="rId2"/>
+    <sheet name="Лист1 (2)" sheetId="10" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="7" r:id="rId4"/>
+    <sheet name="КНПН-2025-НГ" sheetId="6" r:id="rId5"/>
+    <sheet name="КНПН" sheetId="2" r:id="rId6"/>
+    <sheet name="КНПН-2024" sheetId="3" r:id="rId7"/>
+    <sheet name="КНПН (3)" sheetId="4" r:id="rId8"/>
+    <sheet name="КНПН (4)" sheetId="5" r:id="rId9"/>
+    <sheet name="Неон" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 май'!$A$4:$AA$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">КНПН!$A$3:$T$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'КНПН (3)'!$A$3:$T$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'КНПН (4)'!$A$3:$T$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'КНПН-2024'!$A$3:$T$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'КНПН-2025-НГ'!$A$3:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист1!$A$3:$X$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Лист1 (2)'!$A$3:$X$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Неон!$A$3:$S$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">КНПН!$A$3:$T$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'КНПН (3)'!$A$3:$T$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'КНПН (4)'!$A$3:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'КНПН-2024'!$A$3:$T$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'КНПН-2025-НГ'!$A$3:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Лист1!$A$3:$X$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Лист1 (2)'!$A$3:$X$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Неон!$A$3:$S$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="185">
   <si>
     <t>Написание БПО состояний</t>
   </si>
@@ -646,6 +647,42 @@
   </si>
   <si>
     <t>Пайка СП</t>
+  </si>
+  <si>
+    <t>Написание ПО для отображения телеметрии</t>
+  </si>
+  <si>
+    <t>Написание ПО аппарата</t>
+  </si>
+  <si>
+    <t>Разработка конструкции аппарата</t>
+  </si>
+  <si>
+    <t>Проведение испытаний системы наведения СП</t>
+  </si>
+  <si>
+    <t>Проведение испытаний гермообъема</t>
+  </si>
+  <si>
+    <t>Проведение испытаний раскрытия лепестков</t>
+  </si>
+  <si>
+    <t>Проведение сбросовых испытаний с парашютом и раскрытием лепестков</t>
+  </si>
+  <si>
+    <t>Написание ПЗ и презентации к ПЗ</t>
+  </si>
+  <si>
+    <t>Влад, Андрей</t>
+  </si>
+  <si>
+    <t>Рома, Андрей</t>
+  </si>
+  <si>
+    <t>Написание ПО наземной приемной станции</t>
+  </si>
+  <si>
+    <t>Разработка печатных плат</t>
   </si>
 </sst>
 </file>
@@ -734,7 +771,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +886,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,7 +1368,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1487,6 +1536,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1512,21 +1582,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1565,12 +1620,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1583,6 +1664,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFD964"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF0066"/>
@@ -1592,7 +1674,6 @@
       <color rgb="FF00CC66"/>
       <color rgb="FF66FF99"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFF9966"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1872,8 +1953,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,101 +1968,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="133" t="s">
+      <c r="F1" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="132" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="133" t="s">
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="134"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="128"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="136">
-        <v>1</v>
-      </c>
-      <c r="G2" s="133"/>
-      <c r="H2" s="132">
+      <c r="A2" s="131"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="129">
+        <v>1</v>
+      </c>
+      <c r="G2" s="126"/>
+      <c r="H2" s="125">
         <v>2</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="132">
+      <c r="I2" s="126"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="125">
         <v>3</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="132">
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="125">
         <v>4</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="133">
+      <c r="P2" s="126"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="126">
         <v>5</v>
       </c>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="132">
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="125">
         <v>6</v>
       </c>
-      <c r="V2" s="133"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="132">
+      <c r="V2" s="126"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="125">
         <v>7</v>
       </c>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="135"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="127"/>
       <c r="AA2" s="108">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
       <c r="F3" s="97" t="s">
         <v>157</v>
       </c>
@@ -1991,13 +2072,13 @@
       <c r="H3" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="123" t="s">
         <v>157</v>
       </c>
       <c r="J3" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="150" t="s">
+      <c r="K3" s="124" t="s">
         <v>159</v>
       </c>
       <c r="L3" s="122" t="s">
@@ -3381,6 +3462,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:W1"/>
@@ -3390,12 +3477,6 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D37">
     <cfRule type="colorScale" priority="1">
@@ -3414,7 +3495,776 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="19" width="2.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D1" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S31"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="161">
+        <v>1</v>
+      </c>
+      <c r="C4" s="162" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="161">
+        <v>2</v>
+      </c>
+      <c r="C5" s="162" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="161">
+        <v>3</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="161">
+        <v>4</v>
+      </c>
+      <c r="C7" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="161">
+        <v>5</v>
+      </c>
+      <c r="C8" s="162" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="161">
+        <v>6</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="163" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="161">
+        <v>7</v>
+      </c>
+      <c r="C10" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="163" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="161">
+        <v>8</v>
+      </c>
+      <c r="C11" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="161">
+        <v>9</v>
+      </c>
+      <c r="C12" s="162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="161">
+        <v>10</v>
+      </c>
+      <c r="C13" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="161">
+        <v>11</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="161">
+        <v>12</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="161">
+        <v>13</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="161">
+        <v>14</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="161">
+        <v>15</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="161">
+        <v>16</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="161">
+        <v>17</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="161">
+        <v>18</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="164">
+        <v>19</v>
+      </c>
+      <c r="C22" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="166" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="152" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
@@ -3432,54 +4282,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="132" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="133" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="132" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="133" t="s">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="134"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="128"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="128"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="61">
         <v>1</v>
       </c>
@@ -4809,7 +5659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
@@ -4827,54 +5677,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="132" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="133" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="132" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="133" t="s">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="134"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="128"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="128"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="61">
         <v>1</v>
       </c>
@@ -6204,7 +7054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -6223,30 +7073,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="140"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="21">
         <v>21</v>
       </c>
@@ -6710,7 +7560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
@@ -6729,48 +7579,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="139" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="129" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="139" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="140"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -8323,7 +9173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
@@ -8342,48 +9192,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="139" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="129" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="139" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="140"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -9331,1613 +10181,6 @@
       </c>
       <c r="D33" s="15">
         <v>2</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="17"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-    </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-    </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-    </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-    </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-    </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-    </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-    </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-    </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-    </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-    </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-    </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-    </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-    </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:T31">
-    <sortState ref="A4:T33">
-      <sortCondition ref="C3:C31"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="8">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="65.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="20" width="2.85546875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="139" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="139" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="140"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18">
-        <v>2</v>
-      </c>
-      <c r="G2" s="18">
-        <v>3</v>
-      </c>
-      <c r="H2" s="19">
-        <v>4</v>
-      </c>
-      <c r="I2" s="21">
-        <v>5</v>
-      </c>
-      <c r="J2" s="18">
-        <v>6</v>
-      </c>
-      <c r="K2" s="18">
-        <v>7</v>
-      </c>
-      <c r="L2" s="19">
-        <v>8</v>
-      </c>
-      <c r="M2" s="18">
-        <v>9</v>
-      </c>
-      <c r="N2" s="18">
-        <v>10</v>
-      </c>
-      <c r="O2" s="18">
-        <v>11</v>
-      </c>
-      <c r="P2" s="18">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>13</v>
-      </c>
-      <c r="R2" s="18">
-        <v>14</v>
-      </c>
-      <c r="S2" s="18">
-        <v>15</v>
-      </c>
-      <c r="T2" s="30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="9"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="10"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="9"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="39"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="9"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="9"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>100</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="9"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="9"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="9"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>5</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>7</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="9"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>8</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="9"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>4</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="22"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
-        <v>6</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="14"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="9"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
-        <v>7</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="9"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
-        <v>8</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="9"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
-        <v>9</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="9"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32">
-        <v>100</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="15"/>
@@ -11541,8 +10784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11556,48 +10799,1655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="129" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="139" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="129" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="140"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="143"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="145"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19">
+        <v>4</v>
+      </c>
+      <c r="I2" s="21">
+        <v>5</v>
+      </c>
+      <c r="J2" s="18">
+        <v>6</v>
+      </c>
+      <c r="K2" s="18">
+        <v>7</v>
+      </c>
+      <c r="L2" s="19">
+        <v>8</v>
+      </c>
+      <c r="M2" s="18">
+        <v>9</v>
+      </c>
+      <c r="N2" s="18">
+        <v>10</v>
+      </c>
+      <c r="O2" s="18">
+        <v>11</v>
+      </c>
+      <c r="P2" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>13</v>
+      </c>
+      <c r="R2" s="18">
+        <v>14</v>
+      </c>
+      <c r="S2" s="18">
+        <v>15</v>
+      </c>
+      <c r="T2" s="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="10"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="39"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>100</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="22"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="14"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>9</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32">
+        <v>100</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+    </row>
+    <row r="56" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+    </row>
+    <row r="57" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+    </row>
+    <row r="59" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:T31">
+    <sortState ref="A4:T33">
+      <sortCondition ref="C3:C31"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="65.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="20" width="2.85546875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="142"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="145"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="21">
         <v>1</v>
       </c>
@@ -13236,458 +14086,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="65.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="19" width="2.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D1" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:S31"/>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>